--- a/results_UK.xlsx
+++ b/results_UK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="251">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -53,238 +53,238 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(76828.3135, 126182.8811), mean=[92200.1364, 106180.0023], var=[420247.6574, 131512653.9674])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(47257.078, 61595.1636), mean=[50687.3334, 58164.9082], var=[0.0, 19381080.2932])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-80153.4178, -16460.7646), mean=[-63611.2229, -37611.6552], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(113037.5198, 163172.2354), mean=[131153.6057, 145056.1496], var=[918767.9918, 124470361.3568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.6207, -9.1636), mean=[-35.4118, -20.9381], var=[0.0, 0.0094])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125459.5062, 257568.4867), mean=[175766.9521, 216737.9781], var=[105916.6191, 1087833791.1855])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(78373.7771, 104364.4343), mean=[84618.0771, 98120.1343], var=[0.0, 62950552.8297])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(104363.7687, 108998.2887), mean=104828.0207, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-133810.7368, 28923.4208), mean=[-81711.9394, -13890.5274], var=[0.0, 2135441393.6242])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(42901.0706, 192095.6562), mean=[88013.9195, 146982.8073], var=[0.0, 1489939927.3012])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74.4912, 16.1014), mean=[-45.4883, -7.7327], var=[0.0, 0.0662])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(127708.4946, 262185.6621), mean=[178917.7523, 220623.2254], var=[109747.9794, 1127184397.7921])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(77303.6798, 103457.4671), mean=[83619.5852, 97141.5617], var=[0.0, 63388004.8207])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-130654.7812, 34610.6936), mean=[-77641.4348, -8949.2959], var=[0.0, 2196474526.81])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-23021.0755, 226706.3497), mean=[43886.6684, 159798.6058], var=[0.0, 4979911061.0093])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72.7343, 19.2674), mean=[-43.2223, -4.982], var=[0.0, 0.0681])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(129676.7328, 266226.457), mean=[181675.2255, 224023.4617], var=[113156.9106, 1162196378.0529])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(76256.263, 102552.8163), mean=[82635.0039, 96174.0754], var=[0.0, 63770550.1895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-127781.8922, 39698.9053), mean=[-73967.9047, -4514.1525], var=[0.0, 2250578389.9958])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-85144.1029, 266405.255), mean=[2046.6623, 179214.4899], var=[0.0, 11008074502.0564])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-71.135, 22.1), mean=[-41.1772, -2.513], var=[0.0, 0.0697])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(131400.0613, 269764.452), mean=[184089.5838, 227000.6034], var=[116184.4744, 1193291461.569])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(75234.3859, 101655.9407), mean=[81668.2458, 95222.0809], var=[0.0, 64105361.543])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-125161.6882, 44258.7774), mean=[-70646.4526, -526.1865], var=[0.0, 2298485908.6467])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-143835.9481, 310664.0324), mean=[-37512.9101, 204340.9944], var=[0.0, 19892689743.7282])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-69.6763, 24.6384), mean=[-39.3282, -0.2929], var=[0.0, 0.0712])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(132914.3204, 272873.2275), mean=[186211.0389, 229616.5667], var=[118877.7324, 1220953004.2476])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(74241.093, 100772.4845), mean=[80723.4693, 94290.1082], var=[0.0, 64399644.6456])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-122763.9728, 48360.8458), mean=[-67632.4049, 3073.2823], var=[0.0, 2340993567.5373])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-199417.4853, 359024.8781), mean=[-74850.6041, 234457.9969], var=[0.0, 31882929845.0189])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-68.3415, 26.922), mean=[-37.6503, 1.7109], var=[0.0, 0.0725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134255.3507, 275626.3639), mean=[188089.8029, 231933.2679], var=[121288.6519, 1245714743.1656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(73279.6047, 99908.2677), mean=[79805.0124, 93382.86], var=[0.0, 64660131.0837])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-120558.7257, 52075.4705), mean=[-64881.1716, 6342.7226], var=[0.0, 2378954690.2267])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-252162.7024, 411100.3487), mean=[-110103.0386, 269040.6849], var=[0.0, 47196831806.2188])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-67.1139, 28.9899), mean=[-36.1187, 3.5309], var=[0.0, 0.0737])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(135458.9926, 278097.4419), mean=[189776.0878, 234012.6234], var=[123473.1833, 1268151326.9813])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(72353.3086, 99069.2776), mean=[78917.3838, 92505.2024], var=[0.0, 64893942.895])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-91210.5624, 82778.3759), mean=[-35042.8764, 36645.9876], var=[0.0, 2413283731.5081])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-274993.3366, 493878.7246), mean=[-116085.84, 334971.2281], var=[0.0, 66024907816.3568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-50.7761, 46.0819), mean=[-19.508, 20.4005], var=[0.0, 0.0748])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(136561.0866, 280360.0418), mean=[191320.1054, 235916.5494], var=[125490.5114, 1288870621.8935])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(71465.7511, 98261.6605), mean=[78065.2788, 91662.1328], var=[0.0, 65107973.8376])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-89300.8513, 85928.5333), mean=[-32684.2791, 39430.188], var=[0.0, 2444929509.923])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-295395.6272, 579807.2579), mean=[-120191.2399, 404602.8707], var=[0.0, 88529421094.4281])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-49.7129, 47.8356), mean=[-18.195, 21.9504], var=[0.0, 0.0758])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(137597.473, 282487.7441), mean=[192772.0678, 237706.9621], var=[127402.4788, 1308507793.1493])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(64031.9637, 93617.5058), mean=[70664.8733, 86984.5962], var=[0.0, 88816111.0418])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-83620.3103, 95490.023), mean=[-26581.5125, 48647.489], var=[0.0, 2606272465.0683])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-313503.8728, 668708.6151), mean=[-122476.1883, 477680.9306], var=[0.0, 114851490769.1307])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-46.5506, 53.1584), mean=[-14.7977, 27.0816], var=[0.0, 0.0808])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(138603.9924, 284554.1294), mean=[194182.1869, 239445.778], var=[129273.1829, 1327721162.0985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(63233.1188, 92891.6688), mean=[69898.4833, 86226.3043], var=[0.0, 89041795.7885])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81887.9538, 98355.2532), mean=[-24439.0344, 51178.4271], var=[0.0, 2636277600.5044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-329406.1057, 760475.2024), mean=[-122968.0702, 554037.1668], var=[0.0, 145117885184.9961])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-45.5863, 54.7534), mean=[-13.605, 28.4905], var=[0.0, 0.0817])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(139616.4852, 286632.7781), mean=[195600.6747, 241194.9132], var=[131168.7449, 1347189838.7969])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(62484.5275, 92216.5185), mean=[69182.5732, 85518.4727], var=[0.0, 89268578.3653])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-80200.3107, 101182.4932), mean=[-22338.7789, 53669.3501], var=[0.0, 2666631954.1048])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-343144.2284, 855069.0297), mean=[-121666.6988, 633591.5002], var=[0.0, 179443153258.4351])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-44.6468, 56.3273), mean=[-12.4358, 29.8772], var=[0.0, 0.0826])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(140670.7918, 288797.2707), mean=[197077.7431, 243016.2841], var=[133157.2527, 1367613130.157])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61790.2958, 91598.7608), mean=[68522.4096, 84866.647], var=[0.0, 89504809.8177])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-78528.2464, 104041.2175), mean=[-20236.9686, 56177.839], var=[0.0, 2698422467.6286])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-354714.1424, 952521.5814), mean=[-118524.4, 716331.839], var=[0.0, 217952605145.656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43.7159, 57.9188), mean=[-11.2657, 31.2737], var=[0.0, 0.0836])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(141802.7528, 291121.1877), mean=[198663.604, 244971.807], var=[135308.8758, 1389711723.6462])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(61154.6529, 91045.2246), mean=[67923.3803, 84276.4973], var=[0.0, 89758337.8114])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76842.7492, 107000.7774), mean=[-18090.0336, 58761.3234], var=[0.0, 2732763528.7057])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-364065.8717, 1052933.6929), mean=[-113446.0122, 802313.8334], var=[0.0, 260806453740.1442])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-42.7776, 59.5663), mean=[-10.0706, 32.7119], var=[0.0, 0.0847])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(143048.2086, 293678.1095), mean=[200408.4695, 247123.3981], var=[137696.1535, 1414230646.5338])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(60581.9447, 90562.8555), mean=[67391.0006, 83753.7995], var=[0.0, 90037221.1572])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-75114.9243, 110130.4074), mean=[-15854.4215, 61477.1258], var=[0.0, 2770795730.3203])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-371103.6794, 1156475.4344), mean=[-106287.3419, 891659.097], var=[0.0, 308171848153.318])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-41.8158, 61.3086), mean=[-8.826, 34.2237], var=[0.0, 0.0859])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2073447.1343, 2954483.9713), mean=[-1757184.0709, 2527898.068], var=[0.0, 4992578158778.732])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1667.3898, 1131.6122), mean=[-1491.3291, 894.1358], var=[0.0, 1547221.9803])</t>
+    <t>Pbox: ~ (range=[(77482.0236, 124173.0113), mean=[89147.1183, 108040.3526], var=[0.0, 158877545.0292])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(50567.9297, 66217.2472), mean=[53886.946, 62898.2308], var=[0.0, 26225421.0512])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78949.3216, -16609.0163), mean=[-65930.9665, -33981.068], var=[0.0, 372332778.0264])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(145221.7279, 194735.7937), mean=[159878.0435, 180079.478], var=[0.0, 165707077.3295])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-37.3557, -7.8587), mean=[-31.1959, -16.0785], var=[0.0, 0.0083])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(123656.6757, 249739.9652), mean=[163119.6521, 216809.4721], var=[0.0, 1400598831.4722])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(87800.1895, 113612.4114), mean=[92983.4322, 108429.1687], var=[0.0, 75679899.0263])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(105796.4964, 110769.6417), mean=106294.6109, var=[989017.1825, 1573720.0293])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-138595.3688, 18273.2879), mean=[-97507.3279, -16301.2132], var=[0.0, 2660733388.8542])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(67452.9988, 213009.0816), mean=[104571.1034, 175890.9771], var=[0.0, 1809024139.3014])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-65.5778, 8.6462), mean=[-46.1366, -7.7131], var=[0.0, 0.0596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125958.1702, 255717.0397), mean=[166128.5602, 222196.2342], var=[0.0, 1503905734.5988])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(86228.1676, 112200.3211), mean=[91463.0361, 106965.4527], var=[0.0, 76296453.8566])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-134881.784, 25822.3843), mean=[-93091.6211, -9354.7671], var=[0.0, 2810810900.9902])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-5600.9151, 238831.4659), mean=[50150.7556, 183079.7953], var=[0.0, 5907158833.5578])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-63.8207, 12.2181), mean=[-44.0473, -4.4263], var=[0.0, 0.0629])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(128000.1518, 261575.2462), mean=[168789.6463, 227537.8194], var=[0.0, 1620678903.8216])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(84704.5269, 110816.6471), mean=[89984.7948, 105536.3791], var=[0.0, 76836925.736])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-131456.1283, 33204.2315), mean=[-89050.9912, -2500.6446], var=[0.0, 2977556524.7424])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74352.9306, 272035.6975), mean=[-1630.3833, 199313.1502], var=[0.0, 13077378658.5486])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-62.1998, 15.7109), mean=[-42.1354, -1.1832], var=[0.0, 0.0667])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(129816.7398, 267497.1918), mean=[171148.303, 233007.4274], var=[0.0, 1757544480.0236])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(83230.7632, 109465.4339), mean=[88550.9481, 104145.249], var=[0.0, 77310384.2212])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-128288.3271, 40599.9408), mean=[-85344.3732, 4432.786], var=[0.0, 3169619502.8165])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-139169.9338, 312635.6383), mean=[-50621.798, 224087.5025], var=[0.0, 23931936431.8946])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-60.701, 19.2103), mean=[-40.3816, 2.0974], var=[0.0, 0.071])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(131442.0609, 273695.428), mean=[173249.9306, 238808.2023], var=[0.0, 1923496240.1035])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(81808.6194, 108150.9731), mean=[87163.9856, 102795.6069], var=[0.0, 77726861.9585])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-125348.5452, 48220.3208), mean=[-81930.9641, 11646.8929], var=[0.0, 3398506358.9304])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-200373.02, 360855.9592), mean=[-96879.4115, 257362.3506], var=[0.0, 39153814692.7301])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-59.31, 22.8159), mean=[-38.7665, 5.5108], var=[0.0, 0.0761])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(132910.2494, 280420.3859), mean=[175139.9369, 245181.1678], var=[0.0, 2130832967.1271])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(80440.0729, 106877.7908), mean=[85826.6894, 101491.1743], var=[0.0, 78096106.3777])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-122607.1744, 56313.8252), mean=[-78769.9331, 19380.5261], var=[0.0, 3679696890.1566])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-258237.7203, 417169.7844), mean=[-140500.9703, 299433.0344], var=[0.0, 59560887899.0796])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-58.0129, 26.6455), mean=[-37.2708, 9.1701], var=[0.0, 0.0824])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(134255.4478, 287970.4144), mean=[176863.7378, 252415.2656], var=[0.0, 2396785463.9985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(79127.3241, 105650.6362), mean=[84542.076, 100235.8843], var=[0.0, 78427890.7929])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-101370.2811, 83841.1429), mean=[-57156.2488, 46584.7663], var=[0.0, 4034304872.2787])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-294329.6762, 501010.9273), mean=[-162945.1821, 369626.4333], var=[0.0, 86205870009.3088])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-47.9644, 39.6703), mean=[-27.0441, 22.0421], var=[0.0, 0.0903])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(135511.8065, 296704.4783), mean=[178466.7574, 260860.0529], var=[0.0, 2745957335.4473])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(77872.7852, 104474.4701), mean=[83313.3461, 99033.9092], var=[0.0, 78732111.4798])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-98937.7562, 93829.7458), mean=[-54378.6325, 56277.4985], var=[0.0, 4491531505.172])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-327498.4644, 594840.6731), mean=[-182981.8201, 450324.0287], var=[0.0, 120527423714.8553])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-46.8134, 44.3965), mean=[-25.7298, 26.6283], var=[0.0, 0.1006])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(136713.4849, 307058.2216), mean=[179994.4286, 270941.7664], var=[0.0, 3213492680.7999])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(70090.4035, 99480.2471), mean=[75523.4024, 94046.4744], var=[0.0, 104796649.3273])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-92741.8549, 111965.8707), mean=[-47858.0842, 74135.3636], var=[0.0, 5285833225.9992])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-357884.1683, 700217.878), mean=[-200676.0595, 543009.7692], var=[0.0, 164452211684.7672])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43.8818, 52.9778), mean=[-22.6446, 35.0779], var=[0.0, 0.1183])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(137894.651, 319564.2873), mean=[181492.1928, 283183.6419], var=[0.0, 3851319290.8445])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(68960.3152, 98421.7351), mean=[74418.3508, 92963.1483], var=[0.0, 105115714.4786])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-90502.1768, 125602.0248), mean=[-45303.0829, 87501.2218], var=[0.0, 6105020831.3009])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-385582.1004, 819231.2369), mean=[-216059.7226, 649708.8592], var=[0.0, 220631207132.2153])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-42.822, 59.4299), mean=[-21.4356, 41.4021], var=[0.0, 0.1367])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(139089.4819, 334878.0225), mean=[183005.5009, 298231.6189], var=[0.0, 4736019708.4917])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(67896.8403, 97430.2613), mean=[73380.0915, 91946.6412], var=[0.0, 105436744.7497])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-88315.8721, 141979.2348), mean=[-42799.4302, 103606.5045], var=[0.0, 7217366725.0608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-410642.9746, 954621.8058), mean=[-229125.2738, 773104.1051], var=[0.0, 292750278780.9396])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-41.7876, 67.179), mean=[-20.251, 49.0225], var=[0.0, 0.1616])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(140332.1644, 353809.9947), mean=[184579.8129, 316886.8577], var=[0.0, 5983264605.6744])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(66903.1374, 96511.5329), mean=[72412.6639, 91001.7956], var=[0.0, 105771330.0705])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-86154.4612, 161904.9099), mean=[-40307.5091, 123248.9794], var=[0.0, 8751008015.0063])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-433073.0697, 1109938.0499), mean=[-239822.8088, 916687.789], var=[0.0, 386048708697.083])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-40.7649, 76.607), mean=[-19.0719, 58.3165], var=[0.0, 0.1959])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(141656.8949, 377367.1251), mean=[186260.599, 340146.8721], var=[0.0, 7768225071.8718])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(65982.5287, 95671.421), mean=[71520.3021, 90133.5613], var=[0.0, 106130404.7757])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-83989.6187, 186382.6491), mean=[-37787.6917, 147422.5991], var=[0.0, 10898121578.5945])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-452834.383, 1289732.0332), mean=[-248070.1728, 1084967.823], var=[0.0, 508003709707.6824])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-39.7406, 88.1889), mean=[-17.8796, 69.7545], var=[0.0, 0.244])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(143097.8802, 406804.7229), mean=[188093.3393, 369257.5638], var=[0.0, 10359490555.443])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(65138.492, 94915.952), mean=[70707.3768, 89347.0524], var=[0.0, 106525876.8709])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-81793.1645, 216664.2835), mean=[-35200.4883, 177369.5573], var=[0.0, 13947507082.7608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-469844.7758, 1499807.6508), mean=[-253768.7509, 1283731.6259], var=[0.0, 669371734878.5553])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-38.7013, 102.517), mean=[-16.6555, 83.9243], var=[0.0, 0.3123])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2349602.0252, 3474251.3163), mean=[-2112992.001, 3134803.1677], var=[0.0, 7318791677468.587])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1498.9077, 1256.7092), mean=[-1386.9532, 1096.0958], var=[0.0, 1638536.8424])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -374,16 +374,19 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(3377.0687, 5546.5003), mean=[4090.1072, 4617.8839], var=[2059.9727, 226745.2202])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=1503.8009, var=4834.0111)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(13243.4068, 18488.3342), mean=15865.8705, var=538089.8302)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[5111.5598, 6191.3941], var=[1249.703, 734568.2353])</t>
+    <t>Pbox: ~ (range=[(1688.5344, 2773.2501), mean=[2045.0536, 2308.9419], var=[514.9932, 56686.3051])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(72682.0236, 119373.0113), mean=[84347.1183, 103240.3526], var=[0.0, 158877545.0292])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=[1449.9559, 1557.6459], var=[0.0018, 8708.7186])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(16554.2585, 23110.4178), mean=[19170.393, 20494.2833], var=[8522.5843, 657215.9721])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[4844.445, 6458.5089], var=[0.0, 1076219.3707])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(9340.7095, 13731.0975), mean=11535.9035, var=[0.0, 0.0003])</t>
@@ -392,28 +395,34 @@
     <t>Pbox: ~ (range=[(30.369, 190.809), mean=85.4916, var=4935.5744)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(15233.1499, 78925.8031), mean=[31775.3448, 57774.9125], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43546.8922, 20145.7611), mean=[-27004.6972, -1005.1295], var=[0.0, 304849778.2052])</t>
+    <t>Pbox: ~ (range=[(11264.7764, 73605.0816), mean=[24283.1314, 56233.03], var=[0.0, 372332778.0264])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-50682.0557, 11658.2496), mean=[-37663.7006, -5713.8021], var=[0.0, 372332778.0264])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=-0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(115213.5822, 178906.2354), mean=[131755.7771, 157755.3448], var=[0.0, 304849778.2052])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5514.7036, 11321.6917), mean=[7869.2279, 9426.1706], var=[1740.9481, 1890708.584])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=3006.8341, var=19326.1754)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22977.9315, 32078.1265), mean=27528.029, var=1619858.9862)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[10220.5103, 12379.6276], var=[4996.2606, 2936773.2485])</t>
+    <t>Pbox: ~ (range=[(34705.8684, 97046.1737), mean=[47724.2235, 79674.122], var=[0.0, 372332778.0264])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2757.3518, 5660.8459), mean=[3934.6139, 4713.0853], var=[435.237, 472677.146])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(118688.6757, 243667.9652), mean=[158151.6521, 210737.4721], var=[0.0, 1360943063.5628])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(4968.0, 6072.0), mean=5520.0, var=[0.0, 0.0132])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=[2899.1716, 3114.4967], var=[0.007, 34817.0947])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22527.3839, 31449.1437), mean=[26087.4749, 27889.0527], var=[15782.4114, 2738373.5003])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[9686.417, 12913.7209], var=[0.0, 4302680.2759])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(15929.3754, 23416.6158), mean=19672.9956, var=[0.0, 0.0003])</t>
@@ -422,232 +431,313 @@
     <t>Pbox: ~ (range=[(60.738, 381.618), mean=170.9832, var=19742.2975)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(21095.0719, 179194.7095), mean=[73193.8693, 136380.7613], var=[0.0, 1935096543.1757])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1404.72, 6039.24), mean=1868.972, var=[858866.2597, 1366654.2596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-87903.2168, 74830.9408), mean=[-35804.4193, 32016.9926], var=[0.0, 2135441393.6242])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(31402.8453, 257829.6562), mean=[89951.0657, 204815.7622], var=[0.0, 5069413283.2385])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5613.5602, 11524.6445), mean=[8010.2917, 9595.1442], var=[1803.924, 1959101.8719])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23389.8342, 32653.1594), mean=28021.4968, var=1678454.7333)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24251.0275, 184881.9823), mean=[77264.3739, 141321.9928], var=[0.0, 1993268726.737])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-84747.2612, 80518.2136), mean=[-31733.9148, 36958.2241], var=[0.0, 2196474526.81])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-99251.9359, 292440.3497), mean=[-12477.5825, 214417.3202], var=[0.0, 18734336061.7364])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5700.0762, 11702.2618), mean=[8133.746, 9743.0242], var=[1859.9565, 2019954.414])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23750.3174, 33156.4086), mean=28453.363, var=1730589.9688)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(27123.9165, 189970.194), mean=[80937.9041, 145757.1363], var=[0.0, 2044869803.733])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81874.3721, 85606.4254), mean=[-28060.3846, 41393.3676], var=[0.0, 2250578389.9958])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-227033.8281, 332139.255), mean=[-120167.704, 232673.587], var=[0.0, 42872228306.1979])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5775.8269, 11857.7781), mean=[8241.8388, 9872.5034], var=[1909.7205, 2073999.1972])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24065.9453, 33597.038), mean=28831.4916, var=1776892.6769)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(29744.1206, 194530.0661), mean=[84259.3562, 149745.1022], var=[0.0, 2090586503.0179])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-79254.1681, 90166.2974), mean=[-24738.9325, 45381.3335], var=[0.0, 2298485908.6467])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-352195.5163, 376398.0324), mean=[-231448.5774, 258067.4753], var=[0.0, 78085193854.4331])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5842.3877, 11994.4276), mean=[8336.818, 9986.2745], var=[1953.9895, 2122076.3176])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24343.2821, 33984.2115), mean=29163.7468, var=1818082.6076)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(32141.836, 198632.1345), mean=[87273.4038, 153344.5711], var=[0.0, 2131169542.8124])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-76856.4527, 94268.3658), mean=[-21724.8849, 48980.8024], var=[0.0, 2340993567.5373])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-474959.4891, 424758.8781), mean=[-342247.1138, 289456.6086], var=[0.0, 124832933843.293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5901.3341, 12115.4446), mean=[8420.9318, 10087.0303], var=[1993.6177, 2165113.4366])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24588.8921, 34327.0929), mean=29457.9925, var=1854954.532)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(34347.083, 202346.7593), mean=[90024.6371, 156614.0113], var=[0.0, 2167426779.7701])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74651.2056, 97982.9906), mean=[-18973.6515, 52250.2427], var=[0.0, 2378954690.2267])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-595518.2148, 476834.3487), mean=[-451256.1794, 325989.0798], var=[0.0, 183592734460.4897])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5954.2414, 12224.0634), mean=[8496.4281, 10177.4637], var=[2029.5247, 2204109.3218])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24809.3393, 34634.8462), mean=29722.0928, var=1888364.1412)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36389.715, 205744.1333), mean=[92557.401, 159611.745], var=[0.0, 2200226782.3656])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-72608.5737, 101380.3647), mean=[-16440.8876, 55247.9763], var=[0.0, 2413283731.5081])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-686728.7772, 559612.7246), mean=[-531370.0409, 393871.4666], var=[0.0, 254846552667.9293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6002.6851, 12323.5183), mean=[8565.5551, 10260.2676], var=[2062.6835, 2240120.4745])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25011.188, 34916.6352), mean=29963.9116, var=1919216.5897)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(38299.4261, 208894.2907), mean=[94915.9983, 162395.9454], var=[0.0, 2230472790.474])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-70698.8626, 104530.522), mean=[-14082.2903, 58032.1767], var=[0.0, 2444929509.923])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-776029.6285, 645541.2579), mean=[-609927.6008, 465115.1501], var=[0.0, 339058901232.6394])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6048.2406, 12417.0437), mean=[8630.5606, 10338.1346], var=[2094.1104, 2274250.843])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25201.0024, 35181.6238), mean=30191.3131, var=1948457.6821)</t>
+    <t>Pbox: ~ (range=[(10044.2643, 161939.7757), mean=[50787.8231, 127365.2746], var=[0.0, 2415174767.7487])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1346.4, 6319.5453), mean=1844.5145, var=[989017.1825, 1573720.0293])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-100725.3774, 56143.2793), mean=[-59637.3366, 21568.7782], var=[0.0, 2660733388.8542])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-103889.5004, 115319.4616), mean=[-57567.7546, 72660.2348], var=[0.0, 6014366053.4438])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2806.7801, 5762.3222), mean=[4005.1459, 4797.5721], var=[450.981, 489775.468])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(120816.2902, 248035.9597), mean=[160986.6802, 214515.1542], var=[0.0, 1410172951.0163])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5141.88, 7681.08), mean=[5315.7593, 7468.5609], var=[0.0, 1611884.16])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22931.21, 32012.9014), mean=[26555.1192, 28388.9921], var=[16353.3143, 2837429.679])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(13757.849, 169488.8721), mean=[55219.8357, 134311.7206], var=[0.0, 2558165125.587])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-97011.7926, 63692.3757), mean=[-55221.6297, 28515.2242], var=[0.0, 2810810900.9902])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-238771.2844, 141141.8459), mean=[-176487.5111, 79598.9756], var=[0.0, 21188243633.589])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2850.0381, 5851.1309), mean=[4066.873, 4871.5121], var=[464.9891, 504988.6035])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(122678.306, 251858.68), mean=[163467.8005, 217821.2532], var=[0.0, 1453974965.684])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5321.8458, 9716.5662), mean=[5501.8109, 9447.7295], var=[0.0, 4828391.8485])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23284.6249, 32506.2829), mean=[26964.3856, 28826.5221], var=[16861.272, 2925564.3551])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(17183.5047, 176870.7193), mean=[59274.5044, 141165.8431], var=[0.0, 2717225990.1939])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-93586.1369, 71074.2229), mean=[-51180.9998, 35369.3468], var=[0.0, 2977556524.7424])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-370227.4127, 174346.0775), mean=[-296700.8195, 97255.4885], var=[0.0, 47072894945.2021])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2887.9134, 5928.8891), mean=[4120.9194, 4936.2517], var=[477.4301, 518499.7993])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(124308.6294, 255205.7355), mean=[165640.1926, 220715.9712], var=[0.0, 1492876715.7171])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5508.1104, 12291.4562), mean=[5694.3742, 11951.3778], var=[0.0, 11503445.1963])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23594.064, 32938.2725), mean=[27322.7267, 29209.6099], var=[17312.4028, 3003839.137])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(20351.306, 184266.4286), mean=[62993.3337, 148099.2738], var=[0.0, 2900671154.6737])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-90418.3357, 78469.9322), mean=[-47474.3818, 42302.7774], var=[0.0, 3169619502.8165])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-498515.7398, 214946.0183), mean=[-414546.0469, 123688.368], var=[0.0, 84948342861.7492])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2921.1939, 5997.2138), mean=[4168.409, 4993.1372], var=[488.4974, 530519.0794])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125741.1666, 258146.7358), mean=[167549.0363, 223259.5101], var=[0.0, 1527482907.3439])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5700.8943, 15548.6921), mean=[5893.6773, 15118.493], var=[0.0, 24244780.7728])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23865.9629, 33317.8544), mean=[27637.5948, 29546.2225], var=[17713.7195, 3073470.7628])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23291.0879, 191886.8086), mean=[66417.4102, 155313.3807], var=[0.0, 3119596396.94])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-87478.5538, 86090.3122), mean=[-44060.9727, 49516.8843], var=[0.0, 3398506358.9304])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-623864.285, 263166.3392), mean=[-530128.5016, 158084.3938], var=[0.0, 136221802444.2664])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2950.667, 6057.7223), mean=[4210.4659, 5043.5152], var=[498.4044, 541278.3591])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(127009.8239, 260751.2903), mean=[169239.5113, 225512.0723], var=[0.0, 1558461276.5537])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5900.4256, 19669.0956), mean=[6099.956, 19124.8936], var=[0.0, 47394068.3922])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24106.7569, 33654.0127), mean=[27916.4425, 29844.3272], var=[18072.9655, 3135802.7938])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26032.4586, 199980.313), mean=[69587.7551, 163047.0139], var=[0.0, 3388929582.5055])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-84737.183, 94183.8166), mean=[-40899.9417, 57250.5175], var=[0.0, 3679696890.1566])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-746471.4594, 319480.1644), mean=[-643592.7535, 200891.7863], var=[0.0, 202367887300.0904])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2977.1207, 6112.0317), mean=[4248.2141, 5088.7319], var=[507.3812, 551027.3304])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(128148.5073, 263089.0085), mean=[170756.7973, 227533.8597], var=[0.0, 1586530742.0928])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6106.9405, 24881.4059), mean=[6313.4545, 24192.9904], var=[0.0, 88120138.0482])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24322.8817, 33955.7316), mean=[28166.7222, 30111.891], var=[18398.4779, 3192281.7772])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(28604.8116, 208843.0903), mean=[72545.1879, 171586.7136], var=[0.0, 3729152659.8907])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-82164.8301, 103046.5939), mean=[-37950.7978, 65790.2173], var=[0.0, 4034304872.2787])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-847841.7405, 403321.3073), mean=[-736433.326, 271542.0505], var=[0.0, 285300108207.9104])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3001.3426, 6161.7592), mean=[4282.7775, 5130.1338], var=[515.6709, 560030.1186])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(129191.1232, 265229.4999), mean=[172146.0741, 229385.0744], var=[0.0, 1612451779.7744])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6320.6834, 31474.9785), mean=[6534.4254, 30604.1328], var=[0.0, 158184640.1851])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24520.7726, 34231.9953), mean=[28395.8866, 30356.8813], var=[18699.0757, 3244437.8773])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(31037.3364, 218831.6931), mean=[75330.3275, 181279.4459], var=[0.0, 4168841163.2141])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-79732.3052, 113035.1968), mean=[-35173.1815, 75482.9495], var=[0.0, 4491531505.172])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-946779.4968, 497151.0531), mean=[-827447.1289, 352490.4839], var=[0.0, 387533560755.141])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3024.1203, 6208.5218), mean=[4315.2803, 5169.0673], var=[523.5276, 568562.7108])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(130171.5776, 267242.3738), mean=[173452.5213, 231125.9187], var=[0.0, 1637019018.1017])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6541.9073, 39815.8477), mean=[6763.1303, 38714.228], var=[0.0, 276788778.2209])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24706.8651, 34491.7881), mean=[28611.388, 30587.2651], var=[18983.974, 3293869.9779])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(9340.7095, 19542.4085), mean=[10008.8093, 18591.5538], var=[0.0, 26018665.5774])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(43979.9672, 218455.7804), mean=[101018.7649, 171613.2464], var=[0.0, 2384180838.6091])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-65018.3215, 114092.0118), mean=[-7979.5237, 67249.4777], var=[0.0, 2606272465.0683])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-859649.9388, 741031.2809), mean=[-683128.0511, 546095.7478], var=[0.0, 438411695774.0128])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6092.4832, 12507.8738), mean=[8693.6927, 10413.7576], var=[2124.8591, 2307644.6224])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25385.3466, 35438.9758), mean=30412.1612, var=1977067.7038)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(45712.3236, 221321.0106), mean=[103161.2431, 174144.1846], var=[0.0, 2412907766.4413])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-63285.965, 116957.2419), mean=[-5837.0456, 69780.4159], var=[0.0, 2636277600.5044])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-941537.8926, 839386.5341), mean=[-754928.5163, 630112.5397], var=[0.0, 551853614942.095])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6136.9884, 12599.243), mean=[8757.1996, 10489.8293], var=[2156.0164, 2341482.1392])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25570.7848, 35697.8551), mean=30634.32, var=2006057.8961)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(47399.9667, 224148.2507), mean=[105261.4985, 176635.1075], var=[0.0, 2441976607.1928])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-61598.3219, 119784.482), mean=[-3736.7902, 72271.3388], var=[0.0, 2666631954.1048])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1021738.2033, 940569.0273), mean=[-825336.8548, 717097.0483], var=[0.0, 679622052260.5995])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6183.3315, 12694.3855), mean=[8823.3291, 10569.0427], var=[2188.7015, 2376978.8231])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25763.8813, 35967.4257), mean=30865.6535, var=2036469.5751)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(49072.031, 227006.9749), mean=[107363.3088, 179143.5964], var=[0.0, 2472429035.3578])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-59926.2576, 122643.2063), mean=[-1634.9799, 74779.8277], var=[0.0, 2698422467.6286])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1100266.4497, 1044610.2448), mean=[-894353.2996, 807077.469], var=[0.0, 822053928430.4045])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6233.088, 12796.5357), mean=[8894.3294, 10654.0906], var=[2224.0676, 2415387.2645])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25971.2002, 36256.8512), mean=31114.0257, var=2069375.8937)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(50757.5282, 229966.5348), mean=[109510.2438, 181727.0808], var=[0.0, 2505333721.8568])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-58240.7605, 125602.7661), mean=[511.9551, 77363.3121], var=[0.0, 2732763528.7057])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1177109.1989, 1151611.0222), mean=[-961972.874, 900124.9199], var=[0.0, 979591039783.162])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6287.8333, 12908.9279), mean=[8972.4484, 10747.6656], var=[2263.3072, 2458002.3573])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(26199.3056, 36575.2957), mean=31387.3006, var=2105886.2484)</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(52485.3531, 233096.1648), mean=[111745.8559, 184442.8833], var=[0.0, 2541786133.1331])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-56512.9356, 128732.3962), mean=[2747.5672, 80079.1146], var=[0.0, 2770795730.3203])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1252224.1232, 1261741.4296), mean=[-1028115.0374, 996404.1709], var=[0.0, 1152704186763.179])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(86663.8489, 176534.3399), mean=[96997.9558, 164521.5772], var=[0.0, 1330156310.5005])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1971602.5627, 4016156.2335), mean=[2191202.3352, 3759567.532], var=[0.0, 709218067605.1162])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39809.1515, 47389.8059], var=[0.0, 20027028.1448])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(360271.6575, 502953.88), mean=[394108.3395, 469117.198], var=[0.0, 1958118470.3067])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[125570.8946, 202133.9896], var=[0.0, 1881201697.7549])</t>
+    <t>Pbox: ~ (range=[(37233.2378, 236967.8181), mean=[81857.8765, 199137.311], var=[0.0, 4934671974.0168])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-73536.4039, 131171.3217), mean=[-28652.6332, 93340.8146], var=[0.0, 5285833225.9992])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1039521.3516, 609116.9238), mean=[-912834.5399, 451877.3114], var=[0.0, 514329486012.7985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3046.2416, 6253.9369), mean=[4346.8464, 5206.8788], var=[531.2148, 576911.1556])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(131123.7769, 269197.2399), mean=[174721.3188, 232816.5945], var=[0.0, 1661056055.2033])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6770.8741, 50367.0474), mean=[6999.8399, 48973.4985], var=[0.0, 475156582.5534])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24887.5947, 34744.0939), mean=[28820.6791, 30811.0096], var=[19262.7236, 3342235.2528])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(39472.9159, 250603.9721), mean=[84419.6877, 212503.1691], var=[0.0, 5726531060.6487])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-71296.7258, 144807.4758), mean=[-26097.6319, 106706.6728], var=[0.0, 6105020831.3009])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1130023.5284, 734718.9486), mean=[-996317.4735, 565196.5223], var=[0.0, 668747282621.9818])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3068.4942, 6299.6215), mean=[4378.5998, 5244.9147], var=[539.0041, 585370.5348])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(132081.6273, 271163.7075), mean=[175997.6462, 234517.304], var=[0.0, 1685412497.0827])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7007.8546, 63714.315), mean=[7244.8343, 61951.4756], var=[0.0, 803905660.265])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25069.3969, 34997.8972), mean=[29031.2122, 31036.0819], var=[19545.1773, 3391243.2068])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(41659.2206, 266981.1822), mean=[86930.0469, 228608.4519], var=[0.0, 6804768328.4189])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-69110.4211, 161184.6858), mean=[-23593.9792, 122811.9555], var=[0.0, 7217366725.0608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1218339.4005, 876698.1834), mean=[-1077756.057, 695180.4826], var=[0.0, 856900071271.3981])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3091.6658, 6347.1928), mean=[4411.6646, 5284.5214], var=[547.1754, 594244.7058])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(133079.0348, 273211.3863), mean=[177326.6833, 236288.2492], var=[0.0, 1710963217.1806])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7253.1296, 80598.6084), mean=[7498.4035, 78368.6166], var=[0.0, 1344889817.3699])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25258.7071, 35262.182), mean=[29250.4399, 31270.4493], var=[19841.4806, 3442654.1854])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(43820.6314, 286906.8573), mean=[89428.9308, 248250.9267], var=[0.0, 8295482798.9901])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-66949.0102, 181110.3609), mean=[-21102.0581, 142454.4304], var=[0.0, 8751008015.0063])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1304493.8617, 1038603.0933), mean=[-1157123.1689, 845352.8324], var=[0.0, 1087212505136.4984])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3116.544, 6398.2679), mean=[4447.1647, 5327.0453], var=[556.0169, 603846.8161])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(134149.9058, 275409.8855), mean=[178753.6099, 238189.6324], var=[0.0, 1738609837.2501])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7506.9891, 101957.2396), mean=[7760.8476, 99136.3], var=[0.0, 2230212457.6172])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25461.9609, 35545.9326), mean=[29485.8147, 31522.0788], var=[20162.0894, 3498282.3552])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(45985.474, 311384.5965), mean=[91956.1506, 272424.5465], var=[0.0, 10388258297.2815])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-64784.1677, 205588.1001), mean=[-18582.2407, 166628.0501], var=[0.0, 10898121578.5945])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1388483.4804, 1224985.7424), mean=[-1234389.6123, 1020221.5323], var=[0.0, 1371354398168.89])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3143.9167, 6454.4639), mean=[4486.2242, 5373.8328], var=[565.8268, 614500.5893])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(135328.1465, 277828.8147), mean=[180323.6056, 240281.6556], var=[0.0, 1769284429.5457])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7769.7337, 128975.9082), mean=[8032.4772, 125407.4195], var=[0.0, 3672734180.9888])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25685.5937, 35858.133), mean=[29744.789, 31798.9377], var=[20517.8127, 3560003.1523])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(48181.9282, 341666.2308), mean=[94551.3639, 302371.5046], var=[0.0, 13369264236.2351])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-62587.7135, 235869.7345), mean=[-15995.0373, 196575.0083], var=[0.0, 13947507082.7608])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1470276.6449, 1441650.0259), mean=[-1309503.6473, 1225574.001], var=[0.0, 1725603800954.725])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(43331.9245, 88267.17), mean=[48498.9779, 82260.7886], var=[0.0, 332539077.6251])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1865198.6148, 3799411.2939), mean=[2023794.8787, 3587679.4549], var=[0.0, 682884974103.477])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(92619.2682, 597564.2408), mean=[92882.0118, 593995.7522], var=[0.0, 63742356337.183])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1957817.883, 4396975.5348), mean=[2116414.1469, 4185243.6957], var=[0.0, 1162968831878.7195])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39216.046, 47982.9113], var=[0.0, 25389914.6349])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(356778.0337, 498076.6391), mean=[384736.6139, 470118.0589], var=[0.0, 2394953380.967])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[120908.1109, 206796.7733], var=[0.0, 2268844996.5876])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(192819.9697, 318318.4753), mean=[193959.3276, 317179.1174], var=[0.0, 3937468732.9548])</t>
@@ -656,28 +746,28 @@
     <t>Pbox: ~ (range=[(880.701, 5533.461), mean=[918.9994, 5411.0893], var=[0.0, 5299876.4186])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1019041.4445, 1423570.0464), mean=[1063457.7399, 1379153.751], var=[0.0, 28314664569.7801])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(548032.5163, 2997114.7891), mean=[772141.6021, 2731777.5304], var=[0.0, 1084206643225.7024])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(20334.24, 85217.52), mean=[20606.3164, 74087.3172], var=[0.0, 897900952.0362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1519872.8034, 1584756.0834), mean=[1520144.8798, 1573625.8806], var=[0.0, 897900952.0362])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1036723.5671, 1477241.9856), mean=[-812614.4813, 1211904.727], var=[0.0, 1152704186763.1787])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1497591.1232, 1016374.4296), mean=[-1273482.0374, 751037.1709], var=[0.0, 1152704186763.179])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-833.6949, 565.8061), mean=[-708.9355, 418.0953], var=[0.0, 357228.109])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-9248830.7691, 9692206.2769), mean=[-8603310.8317, 8751359.7397], var=[0.0, 81005730602014.81])</t>
+    <t>Pbox: ~ (range=[(1116752.0954, 1519897.0803), mean=[1151259.3725, 1485389.8032], var=[0.0, 30935226018.8702])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(437920.8028, 3280223.4393), mean=[598693.8004, 3064147.4144], var=[0.0, 1635440732445.2336])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(19578.6, 89202.6342), mean=[19869.9038, 77259.0472], var=[0.0, 1033926341.0606])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1543097.7812, 1612721.8154), mean=[1543389.085, 1600778.2284], var=[0.0, 1033926341.0606])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1174801.0126, 1737125.6582), mean=[-1014028.015, 1521049.6333], var=[0.0, 1725603800954.7244])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1583931.8349, 1327994.8359), mean=[-1423158.8373, 1111918.811], var=[0.0, 1725603800954.7246])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-749.4539, 628.3546), mean=[-673.3824, 526.116], var=[0.0, 386329.5374])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-11807347.1281, 8237137.5485), mean=[-11414984.8943, 7660134.2634], var=[0.0, 95585507790779.98])</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>58780.04202809719</v>
+        <v>61946.83207631908</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1323,25 +1413,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="D6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="E6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="F6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="G6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="H6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="I6">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1368,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>382277.4384029294</v>
+        <v>261303.56549061</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1379,52 +1469,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9300.994375</v>
+        <v>9602.7255</v>
       </c>
       <c r="D7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="E7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="F7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="G7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="H7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="I7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="J7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="K7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="L7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="M7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="N7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="O7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="P7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="Q7">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="R7">
-        <v>539457.67375</v>
+        <v>556958.079</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1485,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>179633</v>
+        <v>211344.81</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1666,49 +1756,49 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="Q2" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="R2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1719,52 +1809,52 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="O3" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="R3" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1887,52 +1977,52 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="R6" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1999,52 +2089,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="O8" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="Q8" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2170,7 +2260,7 @@
         <v>128000</v>
       </c>
       <c r="D11">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2212,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>267000</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2268,7 +2358,7 @@
         <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2282,49 +2372,49 @@
         <v>19758.48</v>
       </c>
       <c r="D13">
-        <v>29640</v>
+        <v>39516.96</v>
       </c>
       <c r="E13">
-        <v>28158</v>
+        <v>37541.112</v>
       </c>
       <c r="F13">
-        <v>26750.1</v>
+        <v>35664.0564</v>
       </c>
       <c r="G13">
-        <v>25412.595</v>
+        <v>33880.85358</v>
       </c>
       <c r="H13">
-        <v>24141.96525</v>
+        <v>32186.81090099999</v>
       </c>
       <c r="I13">
-        <v>22934.86698749999</v>
+        <v>30577.47035594999</v>
       </c>
       <c r="J13">
-        <v>21788.12363812499</v>
+        <v>29048.59683815249</v>
       </c>
       <c r="K13">
-        <v>20698.71745621874</v>
+        <v>27596.16699624487</v>
       </c>
       <c r="L13">
-        <v>19663.78158340781</v>
+        <v>26216.35864643263</v>
       </c>
       <c r="M13">
-        <v>18680.59250423741</v>
+        <v>24905.54071411099</v>
       </c>
       <c r="N13">
-        <v>17746.56287902554</v>
+        <v>23660.26367840544</v>
       </c>
       <c r="O13">
-        <v>16859.23473507426</v>
+        <v>22477.25049448517</v>
       </c>
       <c r="P13">
-        <v>16016.27299832055</v>
+        <v>21353.38796976091</v>
       </c>
       <c r="Q13">
-        <v>15215.45934840452</v>
+        <v>20285.71857127286</v>
       </c>
       <c r="R13">
-        <v>323464.7523803138</v>
+        <v>424669.0271458154</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2335,52 +2425,52 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="R14" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2391,52 +2481,52 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="N15" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O15" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="Q15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="R15" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2447,52 +2537,52 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="R16" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2503,52 +2593,52 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q17" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="R17" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2559,52 +2649,52 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="R18" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2660,7 +2750,7 @@
         <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2671,52 +2761,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="Q20" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="R20" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2783,52 +2873,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>33408</v>
+        <v>36450</v>
       </c>
       <c r="D22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="E22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="F22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="G22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="H22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="I22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="J22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="K22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="L22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="M22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="N22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="O22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="P22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="Q22">
-        <v>70236</v>
+        <v>67320</v>
       </c>
       <c r="R22">
-        <v>1016712</v>
+        <v>978930</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2839,52 +2929,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>668.16</v>
+        <v>729</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R23" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2951,52 +3041,52 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>23152.88202809718</v>
+        <v>23216.83207631908</v>
       </c>
       <c r="D25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="E25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="F25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="G25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="H25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="I25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="J25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="K25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="L25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="M25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="N25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="O25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="P25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="Q25">
-        <v>31172.04867102133</v>
+        <v>35579.09636504133</v>
       </c>
       <c r="R25">
-        <v>459561.563422396</v>
+        <v>521324.1811868977</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3007,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>58780.04202809719</v>
+        <v>61946.83207631908</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -3052,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3063,52 +3153,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="Q27" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="R27" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3119,25 +3209,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="D28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="E28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="F28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="G28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="H28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="I28">
-        <v>27305.53131449496</v>
+        <v>18664.54039218643</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3164,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>191138.7192014647</v>
+        <v>130651.782745305</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3172,55 +3262,55 @@
         <v>115</v>
       </c>
       <c r="B29">
-        <v>158000</v>
+        <v>108000</v>
       </c>
       <c r="C29">
-        <v>138594.47</v>
+        <v>94735.46000000001</v>
       </c>
       <c r="D29">
-        <v>118218.66</v>
+        <v>80807.69</v>
       </c>
       <c r="E29">
-        <v>96824.06</v>
+        <v>66183.53</v>
       </c>
       <c r="F29">
-        <v>74359.73</v>
+        <v>50828.17</v>
       </c>
       <c r="G29">
-        <v>50772.19</v>
+        <v>34705.04</v>
       </c>
       <c r="H29">
-        <v>26005.27</v>
+        <v>17775.75</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R29">
-        <v>662774.3800000001</v>
+        <v>453035.64</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3231,49 +3321,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="Q30" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3287,52 +3377,52 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9300.994375</v>
+        <v>9602.7255</v>
       </c>
       <c r="D31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="E31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="F31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="G31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="H31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="I31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="J31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="K31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="L31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="M31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="N31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="O31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="P31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="Q31">
-        <v>18601.98875</v>
+        <v>19205.451</v>
       </c>
       <c r="R31">
-        <v>269728.836875</v>
+        <v>278479.0395</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3388,7 +3478,7 @@
         <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3444,7 +3534,7 @@
         <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3452,55 +3542,55 @@
         <v>118</v>
       </c>
       <c r="B34">
-        <v>168796</v>
+        <v>85446.18999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K34" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M34" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="N34" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O34" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="Q34" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="R34" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/results_UK.xlsx
+++ b/results_UK.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="221">
   <si>
     <t>Cumulative Sum</t>
   </si>
@@ -53,238 +53,238 @@
     <t>Pbox: ~ (range=[(0.0, 0.0), mean=0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(77482.0236, 124173.0113), mean=[89147.1183, 108040.3526], var=[0.0, 158877545.0292])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(50567.9297, 66217.2472), mean=[53886.946, 62898.2308], var=[0.0, 26225421.0512])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-78949.3216, -16609.0163), mean=[-65930.9665, -33981.068], var=[0.0, 372332778.0264])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(145221.7279, 194735.7937), mean=[159878.0435, 180079.478], var=[0.0, 165707077.3295])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-37.3557, -7.8587), mean=[-31.1959, -16.0785], var=[0.0, 0.0083])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(123656.6757, 249739.9652), mean=[163119.6521, 216809.4721], var=[0.0, 1400598831.4722])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(87800.1895, 113612.4114), mean=[92983.4322, 108429.1687], var=[0.0, 75679899.0263])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(105796.4964, 110769.6417), mean=106294.6109, var=[989017.1825, 1573720.0293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-138595.3688, 18273.2879), mean=[-97507.3279, -16301.2132], var=[0.0, 2660733388.8542])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(67452.9988, 213009.0816), mean=[104571.1034, 175890.9771], var=[0.0, 1809024139.3014])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-65.5778, 8.6462), mean=[-46.1366, -7.7131], var=[0.0, 0.0596])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125958.1702, 255717.0397), mean=[166128.5602, 222196.2342], var=[0.0, 1503905734.5988])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(86228.1676, 112200.3211), mean=[91463.0361, 106965.4527], var=[0.0, 76296453.8566])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-134881.784, 25822.3843), mean=[-93091.6211, -9354.7671], var=[0.0, 2810810900.9902])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-5600.9151, 238831.4659), mean=[50150.7556, 183079.7953], var=[0.0, 5907158833.5578])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-63.8207, 12.2181), mean=[-44.0473, -4.4263], var=[0.0, 0.0629])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(128000.1518, 261575.2462), mean=[168789.6463, 227537.8194], var=[0.0, 1620678903.8216])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(84704.5269, 110816.6471), mean=[89984.7948, 105536.3791], var=[0.0, 76836925.736])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-131456.1283, 33204.2315), mean=[-89050.9912, -2500.6446], var=[0.0, 2977556524.7424])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-74352.9306, 272035.6975), mean=[-1630.3833, 199313.1502], var=[0.0, 13077378658.5486])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-62.1998, 15.7109), mean=[-42.1354, -1.1832], var=[0.0, 0.0667])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(129816.7398, 267497.1918), mean=[171148.303, 233007.4274], var=[0.0, 1757544480.0236])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(83230.7632, 109465.4339), mean=[88550.9481, 104145.249], var=[0.0, 77310384.2212])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-128288.3271, 40599.9408), mean=[-85344.3732, 4432.786], var=[0.0, 3169619502.8165])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-139169.9338, 312635.6383), mean=[-50621.798, 224087.5025], var=[0.0, 23931936431.8946])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-60.701, 19.2103), mean=[-40.3816, 2.0974], var=[0.0, 0.071])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(131442.0609, 273695.428), mean=[173249.9306, 238808.2023], var=[0.0, 1923496240.1035])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(81808.6194, 108150.9731), mean=[87163.9856, 102795.6069], var=[0.0, 77726861.9585])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-125348.5452, 48220.3208), mean=[-81930.9641, 11646.8929], var=[0.0, 3398506358.9304])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-200373.02, 360855.9592), mean=[-96879.4115, 257362.3506], var=[0.0, 39153814692.7301])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-59.31, 22.8159), mean=[-38.7665, 5.5108], var=[0.0, 0.0761])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(132910.2494, 280420.3859), mean=[175139.9369, 245181.1678], var=[0.0, 2130832967.1271])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(80440.0729, 106877.7908), mean=[85826.6894, 101491.1743], var=[0.0, 78096106.3777])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-122607.1744, 56313.8252), mean=[-78769.9331, 19380.5261], var=[0.0, 3679696890.1566])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-258237.7203, 417169.7844), mean=[-140500.9703, 299433.0344], var=[0.0, 59560887899.0796])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-58.0129, 26.6455), mean=[-37.2708, 9.1701], var=[0.0, 0.0824])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134255.4478, 287970.4144), mean=[176863.7378, 252415.2656], var=[0.0, 2396785463.9985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(79127.3241, 105650.6362), mean=[84542.076, 100235.8843], var=[0.0, 78427890.7929])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-101370.2811, 83841.1429), mean=[-57156.2488, 46584.7663], var=[0.0, 4034304872.2787])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-294329.6762, 501010.9273), mean=[-162945.1821, 369626.4333], var=[0.0, 86205870009.3088])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-47.9644, 39.6703), mean=[-27.0441, 22.0421], var=[0.0, 0.0903])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(135511.8065, 296704.4783), mean=[178466.7574, 260860.0529], var=[0.0, 2745957335.4473])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(77872.7852, 104474.4701), mean=[83313.3461, 99033.9092], var=[0.0, 78732111.4798])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-98937.7562, 93829.7458), mean=[-54378.6325, 56277.4985], var=[0.0, 4491531505.172])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-327498.4644, 594840.6731), mean=[-182981.8201, 450324.0287], var=[0.0, 120527423714.8553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-46.8134, 44.3965), mean=[-25.7298, 26.6283], var=[0.0, 0.1006])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(136713.4849, 307058.2216), mean=[179994.4286, 270941.7664], var=[0.0, 3213492680.7999])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(70090.4035, 99480.2471), mean=[75523.4024, 94046.4744], var=[0.0, 104796649.3273])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-92741.8549, 111965.8707), mean=[-47858.0842, 74135.3636], var=[0.0, 5285833225.9992])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-357884.1683, 700217.878), mean=[-200676.0595, 543009.7692], var=[0.0, 164452211684.7672])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-43.8818, 52.9778), mean=[-22.6446, 35.0779], var=[0.0, 0.1183])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(137894.651, 319564.2873), mean=[181492.1928, 283183.6419], var=[0.0, 3851319290.8445])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(68960.3152, 98421.7351), mean=[74418.3508, 92963.1483], var=[0.0, 105115714.4786])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-90502.1768, 125602.0248), mean=[-45303.0829, 87501.2218], var=[0.0, 6105020831.3009])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-385582.1004, 819231.2369), mean=[-216059.7226, 649708.8592], var=[0.0, 220631207132.2153])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-42.822, 59.4299), mean=[-21.4356, 41.4021], var=[0.0, 0.1367])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(139089.4819, 334878.0225), mean=[183005.5009, 298231.6189], var=[0.0, 4736019708.4917])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(67896.8403, 97430.2613), mean=[73380.0915, 91946.6412], var=[0.0, 105436744.7497])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-88315.8721, 141979.2348), mean=[-42799.4302, 103606.5045], var=[0.0, 7217366725.0608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-410642.9746, 954621.8058), mean=[-229125.2738, 773104.1051], var=[0.0, 292750278780.9396])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-41.7876, 67.179), mean=[-20.251, 49.0225], var=[0.0, 0.1616])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(140332.1644, 353809.9947), mean=[184579.8129, 316886.8577], var=[0.0, 5983264605.6744])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(66903.1374, 96511.5329), mean=[72412.6639, 91001.7956], var=[0.0, 105771330.0705])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-86154.4612, 161904.9099), mean=[-40307.5091, 123248.9794], var=[0.0, 8751008015.0063])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-433073.0697, 1109938.0499), mean=[-239822.8088, 916687.789], var=[0.0, 386048708697.083])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-40.7649, 76.607), mean=[-19.0719, 58.3165], var=[0.0, 0.1959])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(141656.8949, 377367.1251), mean=[186260.599, 340146.8721], var=[0.0, 7768225071.8718])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(65982.5287, 95671.421), mean=[71520.3021, 90133.5613], var=[0.0, 106130404.7757])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-83989.6187, 186382.6491), mean=[-37787.6917, 147422.5991], var=[0.0, 10898121578.5945])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-452834.383, 1289732.0332), mean=[-248070.1728, 1084967.823], var=[0.0, 508003709707.6824])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-39.7406, 88.1889), mean=[-17.8796, 69.7545], var=[0.0, 0.244])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(143097.8802, 406804.7229), mean=[188093.3393, 369257.5638], var=[0.0, 10359490555.443])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(65138.492, 94915.952), mean=[70707.3768, 89347.0524], var=[0.0, 106525876.8709])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-81793.1645, 216664.2835), mean=[-35200.4883, 177369.5573], var=[0.0, 13947507082.7608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-469844.7758, 1499807.6508), mean=[-253768.7509, 1283731.6259], var=[0.0, 669371734878.5553])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-38.7013, 102.517), mean=[-16.6555, 83.9243], var=[0.0, 0.3123])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-2349602.0252, 3474251.3163), mean=[-2112992.001, 3134803.1677], var=[0.0, 7318791677468.587])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1498.9077, 1256.7092), mean=[-1386.9532, 1096.0958], var=[0.0, 1638536.8424])</t>
+    <t>Pbox: ~ (range=[(76828.3135, 126182.8811), mean=[92200.1364, 106180.0023], var=[420247.6574, 131512653.9674])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(53878.7814, 70839.3307), mean=[58512.4189, 66205.6932], var=[0.0, 23165181.0115])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-96848.8664, -30533.7495), mean=[-79706.9778, -52277.999], var=[0.0, 332256541.0417])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(96342.0713, 149099.2505), mean=[115046.0259, 130395.2958], var=[562951.1068, 141657675.3088])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-53.9149, -16.9979), mean=[-44.3721, -29.1027], var=[0.0, 0.0103])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(125459.5062, 257568.4867), mean=[175766.9521, 216737.9781], var=[105916.6191, 1087833791.1855])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(78371.4971, 104362.1543), mean=[84615.7971, 98117.8543], var=[0.0, 62950552.8297])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(101811.6376, 106446.1576), mean=102275.8896, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-130538.5757, 32195.5819), mean=[-78439.7783, -10618.3663], var=[0.0, 2135441393.6242])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(29477.7831, 181294.8324), mean=[75064.8755, 135707.74], var=[0.0, 1559014590.8357])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72.6696, 17.923), mean=[-43.6667, -5.9111], var=[0.0, 0.0662])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(127708.4946, 262185.6621), mean=[178917.7523, 220623.2254], var=[109747.9794, 1127184397.7921])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(77301.5138, 103455.3011), mean=[83617.4192, 97139.3957], var=[0.0, 63388004.8207])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-127382.7341, 37882.7407), mean=[-74369.3877, -5677.2488], var=[0.0, 2196474526.81])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-33172.3159, 219177.5731), mean=[34180.1486, 151825.1086], var=[0.0, 5113577415.3469])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70.9128, 21.089), mean=[-41.4007, -3.1605], var=[0.0, 0.0681])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(129676.7328, 266226.457), mean=[181675.2255, 224023.4617], var=[113156.9106, 1162196378.0529])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(76254.2053, 102550.7586), mean=[82632.9462, 96172.0177], var=[0.0, 63770550.1896])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-124509.9534, 42970.8441), mean=[-70695.9659, -1242.2137], var=[0.0, 2250578389.9958])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-92023.4044, 262148.4172), mean=[-4420.7958, 174545.8085], var=[0.0, 11214510061.6712])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-69.3135, 23.9215), mean=[-39.3558, -0.6915], var=[0.0, 0.0697])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(131400.0613, 269764.452), mean=[184089.5838, 227000.6034], var=[116184.4744, 1193291461.569])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(75232.4311, 101653.9859), mean=[81666.291, 95220.126], var=[0.0, 64105361.543])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-121889.8523, 47530.6133), mean=[-67374.6166, 2745.6494], var=[0.0, 2298485908.6467])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-147443.4137, 309679.0305), mean=[-40734.3778, 202969.9945], var=[0.0, 20176869638.7305])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-67.8549, 26.4598), mean=[-37.5068, 1.5285], var=[0.0, 0.0712])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(132914.3204, 272873.2275), mean=[186211.0389, 229616.5667], var=[118877.7324, 1220953004.2476])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(74239.2359, 100770.6274), mean=[80721.6122, 94288.2511], var=[0.0, 64399644.6456])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-119492.2346, 51632.5839), mean=[-64360.6667, 6345.0205], var=[0.0, 2340993567.5373])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-199753.2128, 361311.6144), mean=[-74822.9799, 236381.3815], var=[0.0, 32250242383.2691])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-66.5202, 28.7434), mean=[-35.829, 3.5322], var=[0.0, 0.0725])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(134255.3507, 275626.3639), mean=[188089.8029, 231933.2679], var=[121288.6519, 1245714743.1656])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(73277.8404, 99906.5035), mean=[79803.2481, 93381.0958], var=[0.0, 64660131.0837])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-117287.0804, 55347.1159), mean=[-61609.5263, 9614.3679], var=[0.0, 2378954690.2267])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-249226.7846, 416658.7302), mean=[-106822.3209, 274254.2666], var=[0.0, 47652762753.5826])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-65.2926, 30.8112), mean=[-34.2974, 5.3522], var=[0.0, 0.0737])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(135458.9926, 278097.4419), mean=[189776.0878, 234012.6234], var=[123473.1833, 1268151326.9813])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(72351.6325, 99067.6016), mean=[78915.7078, 92503.5264], var=[0.0, 64893942.895])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-87939.0053, 86049.933), mean=[-31771.3193, 39917.5447], var=[0.0, 2413283731.5081])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-268785.8617, 502708.6633), mean=[-109547.7018, 343470.5034], var=[0.0, 66574712084.5093])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-48.9548, 47.9032), mean=[-17.6868, 22.2217], var=[0.0, 0.0748])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(136561.0866, 280360.0418), mean=[191320.1054, 235916.5494], var=[125490.5114, 1288870621.8935])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(71464.1589, 98260.0682), mean=[78063.6866, 91660.5405], var=[0.0, 65107973.8376])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-86029.378, 89200.0066), mean=[-29412.8058, 42701.6613], var=[0.0, 2444929509.923])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-285916.6789, 591908.6699), mean=[-110392.4324, 416384.4233], var=[0.0, 89178159902.1038])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-47.8917, 49.6568), mean=[-16.3738, 23.7716], var=[0.0, 0.0758])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(137597.473, 282487.7441), mean=[192772.0678, 237706.9621], var=[127402.4788, 1308507793.1493])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(64030.4511, 93615.9932), mean=[70663.3607, 86983.0836], var=[0.0, 88816111.0418])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-80348.9166, 98761.4167), mean=[-23310.1188, 51918.8827], var=[0.0, 2606272465.0683])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-300753.5308, 684081.4207), mean=[-109416.5518, 492744.4417], var=[0.0, 115604112834.8642])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-44.7295, 54.9796), mean=[-12.9765, 28.9028], var=[0.0, 0.0808])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(138603.9924, 284554.1294), mean=[194182.1869, 239445.778], var=[129273.1829, 1327721162.0985])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(63231.6819, 92890.2318), mean=[69897.0463, 86224.8674], var=[0.0, 89041795.7885])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-78616.6357, 101626.5712), mean=[-21167.7163, 54449.7452], var=[0.0, 2636277600.5044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-313384.4457, 779119.3261), mean=[-106647.7874, 572382.6678], var=[0.0, 145979244890.6341])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-43.7651, 56.5746), mean=[-11.7839, 30.3117], var=[0.0, 0.0817])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(139616.4852, 286632.7781), mean=[195600.6747, 241194.9132], var=[131168.7449, 1347189838.7969])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(62483.1623, 92215.1533), mean=[69181.2081, 85517.1076], var=[0.0, 89268578.3653])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76929.0645, 104453.7394), mean=[-19067.5327, 56940.5963], var=[0.0, 2666631954.1048])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-323851.3221, 876984.3997), mean=[-102085.9492, 655219.0268], var=[0.0, 180418045159.3638])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-42.8257, 58.1484), mean=[-10.6147, 31.6983], var=[0.0, 0.0826])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(140670.7918, 288797.2707), mean=[197077.7431, 243016.2841], var=[133157.2527, 1367613130.157])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61788.9989, 91597.464), mean=[68521.1127, 84865.3501], var=[0.0, 89504809.8177])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-75257.0684, 107312.3955), mean=[-16965.7907, 59449.0169], var=[0.0, 2698422467.6286])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-332150.0582, 977708.1293), mean=[-95683.3671, 741241.4382], var=[0.0, 219045848914.6213])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-41.8949, 59.7398), mean=[-9.4447, 33.0947], var=[0.0, 0.0836])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(141802.7528, 291121.1877), mean=[198663.604, 244971.807], var=[135308.8758, 1389711723.6462])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(61153.4209, 91043.9926), mean=[67922.1482, 84275.2653], var=[0.0, 89758337.8114])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-73571.6361, 110271.8905), mean=[-14818.9205, 62032.4365], var=[0.0, 2732763528.7057])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-338230.6744, 1081391.3539), mean=[-87344.9138, 830505.5933], var=[0.0, 262023048677.5146])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-40.9566, 61.3873), mean=[-8.2496, 34.5329], var=[0.0, 0.0847])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(143048.2086, 293678.1095), mean=[200408.4695, 247123.3981], var=[137696.1535, 1414230646.5338])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(60580.7743, 90561.685), mean=[67389.8302, 83752.6291], var=[0.0, 90037221.1572])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-71843.8728, 113401.4589), mean=[-12583.37, 64748.1774], var=[0.0, 2770795730.3203])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-341997.4305, 1188204.147), mean=[-76926.408, 923133.1244], var=[0.0, 309516958605.5082])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-39.9948, 63.1295), mean=[-7.005, 36.0447], var=[0.0, 0.0859])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-2036049.3866, 2997126.6464), mean=[-1719786.3232, 2570332.0777], var=[0.0, 5004290044492.152])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1634.9834, 1166.9383), mean=[-1458.9227, 929.3458], var=[0.0, 1550851.5453])</t>
   </si>
   <si>
     <t>Yield Crop 1</t>
@@ -374,19 +374,16 @@
     <t>Financial Balance</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1688.5344, 2773.2501), mean=[2045.0536, 2308.9419], var=[514.9932, 56686.3051])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(72682.0236, 119373.0113), mean=[84347.1183, 103240.3526], var=[0.0, 158877545.0292])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=[1449.9559, 1557.6459], var=[0.0018, 8708.7186])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(16554.2585, 23110.4178), mean=[19170.393, 20494.2833], var=[8522.5843, 657215.9721])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[4844.445, 6458.5089], var=[0.0, 1076219.3707])</t>
+    <t>Pbox: ~ (range=[(3377.0687, 5546.5003), mean=[4090.1072, 4617.8839], var=[2059.9727, 226745.2202])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1255.2382, 1752.3636), mean=1503.8009, var=4834.0111)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(19865.1101, 27732.5013), mean=23798.8057, var=1210702.118)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(3628.8745, 7674.0793), mean=[5111.5598, 6191.3941], var=[1249.703, 734568.2353])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(9340.7095, 13731.0975), mean=11535.9035, var=[0.0, 0.0003])</t>
@@ -395,34 +392,28 @@
     <t>Pbox: ~ (range=[(30.369, 190.809), mean=85.4916, var=4935.5744)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(11264.7764, 73605.0816), mean=[24283.1314, 56233.03], var=[0.0, 372332778.0264])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-50682.0557, 11658.2496), mean=[-37663.7006, -5713.8021], var=[0.0, 372332778.0264])</t>
+    <t>Pbox: ~ (range=[(5988.9828, 72304.0997), mean=[23130.8714, 50559.8502], var=[0.0, 332256541.0417])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-60601.2157, 5713.9012), mean=[-43459.3271, -16030.3483], var=[0.0, 332256541.0417])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(-0.0, -0.0), mean=-0.0, var=0.0)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(34705.8684, 97046.1737), mean=[47724.2235, 79674.122], var=[0.0, 372332778.0264])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2757.3518, 5660.8459), mean=[3934.6139, 4713.0853], var=[435.237, 472677.146])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(118688.6757, 243667.9652), mean=[158151.6521, 210737.4721], var=[0.0, 1360943063.5628])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(4968.0, 6072.0), mean=5520.0, var=[0.0, 0.0132])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=[2899.1716, 3114.4967], var=[0.007, 34817.0947])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22527.3839, 31449.1437), mean=[26087.4749, 27889.0527], var=[15782.4114, 2738373.5003])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[9686.417, 12913.7209], var=[0.0, 4302680.2759])</t>
+    <t>Pbox: ~ (range=[(98518.1336, 164833.2505), mean=[115660.0222, 143089.001], var=[0.0, 332256541.0417])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5514.7036, 11321.6917), mean=[7869.2279, 9426.1706], var=[1740.9481, 1890708.584])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(2509.8357, 3503.8326), mean=3006.8341, var=19326.1754)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(22977.9315, 32078.1265), mean=27528.029, var=1619858.9862)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(7255.8966, 15344.2413), mean=[10220.5103, 12379.6276], var=[4996.2606, 2936773.2485])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(15929.3754, 23416.6158), mean=19672.9956, var=[0.0, 0.0003])</t>
@@ -431,313 +422,232 @@
     <t>Pbox: ~ (range=[(60.738, 381.618), mean=170.9832, var=19742.2975)</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(10044.2643, 161939.7757), mean=[50787.8231, 127365.2746], var=[0.0, 2415174767.7487])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1346.4, 6319.5453), mean=1844.5145, var=[989017.1825, 1573720.0293])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-100725.3774, 56143.2793), mean=[-59637.3366, 21568.7782], var=[0.0, 2660733388.8542])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-103889.5004, 115319.4616), mean=[-57567.7546, 72660.2348], var=[0.0, 6014366053.4438])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2806.7801, 5762.3222), mean=[4005.1459, 4797.5721], var=[450.981, 489775.468])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(120816.2902, 248035.9597), mean=[160986.6802, 214515.1542], var=[0.0, 1410172951.0163])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5141.88, 7681.08), mean=[5315.7593, 7468.5609], var=[0.0, 1611884.16])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(22931.21, 32012.9014), mean=[26555.1192, 28388.9921], var=[16353.3143, 2837429.679])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(13757.849, 169488.8721), mean=[55219.8357, 134311.7206], var=[0.0, 2558165125.587])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-97011.7926, 63692.3757), mean=[-55221.6297, 28515.2242], var=[0.0, 2810810900.9902])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-238771.2844, 141141.8459), mean=[-176487.5111, 79598.9756], var=[0.0, 21188243633.589])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2850.0381, 5851.1309), mean=[4066.873, 4871.5121], var=[464.9891, 504988.6035])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(122678.306, 251858.68), mean=[163467.8005, 217821.2532], var=[0.0, 1453974965.684])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5321.8458, 9716.5662), mean=[5501.8109, 9447.7295], var=[0.0, 4828391.8485])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23284.6249, 32506.2829), mean=[26964.3856, 28826.5221], var=[16861.272, 2925564.3551])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(17183.5047, 176870.7193), mean=[59274.5044, 141165.8431], var=[0.0, 2717225990.1939])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-93586.1369, 71074.2229), mean=[-51180.9998, 35369.3468], var=[0.0, 2977556524.7424])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-370227.4127, 174346.0775), mean=[-296700.8195, 97255.4885], var=[0.0, 47072894945.2021])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2887.9134, 5928.8891), mean=[4120.9194, 4936.2517], var=[477.4301, 518499.7993])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(124308.6294, 255205.7355), mean=[165640.1926, 220715.9712], var=[0.0, 1492876715.7171])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5508.1104, 12291.4562), mean=[5694.3742, 11951.3778], var=[0.0, 11503445.1963])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23594.064, 32938.2725), mean=[27322.7267, 29209.6099], var=[17312.4028, 3003839.137])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(20351.306, 184266.4286), mean=[62993.3337, 148099.2738], var=[0.0, 2900671154.6737])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-90418.3357, 78469.9322), mean=[-47474.3818, 42302.7774], var=[0.0, 3169619502.8165])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-498515.7398, 214946.0183), mean=[-414546.0469, 123688.368], var=[0.0, 84948342861.7492])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2921.1939, 5997.2138), mean=[4168.409, 4993.1372], var=[488.4974, 530519.0794])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(125741.1666, 258146.7358), mean=[167549.0363, 223259.5101], var=[0.0, 1527482907.3439])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5700.8943, 15548.6921), mean=[5893.6773, 15118.493], var=[0.0, 24244780.7728])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23865.9629, 33317.8544), mean=[27637.5948, 29546.2225], var=[17713.7195, 3073470.7628])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(23291.0879, 191886.8086), mean=[66417.4102, 155313.3807], var=[0.0, 3119596396.94])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-87478.5538, 86090.3122), mean=[-44060.9727, 49516.8843], var=[0.0, 3398506358.9304])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-623864.285, 263166.3392), mean=[-530128.5016, 158084.3938], var=[0.0, 136221802444.2664])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2950.667, 6057.7223), mean=[4210.4659, 5043.5152], var=[498.4044, 541278.3591])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(127009.8239, 260751.2903), mean=[169239.5113, 225512.0723], var=[0.0, 1558461276.5537])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(5900.4256, 19669.0956), mean=[6099.956, 19124.8936], var=[0.0, 47394068.3922])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24106.7569, 33654.0127), mean=[27916.4425, 29844.3272], var=[18072.9655, 3135802.7938])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(26032.4586, 199980.313), mean=[69587.7551, 163047.0139], var=[0.0, 3388929582.5055])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-84737.183, 94183.8166), mean=[-40899.9417, 57250.5175], var=[0.0, 3679696890.1566])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-746471.4594, 319480.1644), mean=[-643592.7535, 200891.7863], var=[0.0, 202367887300.0904])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(2977.1207, 6112.0317), mean=[4248.2141, 5088.7319], var=[507.3812, 551027.3304])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(128148.5073, 263089.0085), mean=[170756.7973, 227533.8597], var=[0.0, 1586530742.0928])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6106.9405, 24881.4059), mean=[6313.4545, 24192.9904], var=[0.0, 88120138.0482])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24322.8817, 33955.7316), mean=[28166.7222, 30111.891], var=[18398.4779, 3192281.7772])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(28604.8116, 208843.0903), mean=[72545.1879, 171586.7136], var=[0.0, 3729152659.8907])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-82164.8301, 103046.5939), mean=[-37950.7978, 65790.2173], var=[0.0, 4034304872.2787])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-847841.7405, 403321.3073), mean=[-736433.326, 271542.0505], var=[0.0, 285300108207.9104])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3001.3426, 6161.7592), mean=[4282.7775, 5130.1338], var=[515.6709, 560030.1186])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(129191.1232, 265229.4999), mean=[172146.0741, 229385.0744], var=[0.0, 1612451779.7744])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6320.6834, 31474.9785), mean=[6534.4254, 30604.1328], var=[0.0, 158184640.1851])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24520.7726, 34231.9953), mean=[28395.8866, 30356.8813], var=[18699.0757, 3244437.8773])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(31037.3364, 218831.6931), mean=[75330.3275, 181279.4459], var=[0.0, 4168841163.2141])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-79732.3052, 113035.1968), mean=[-35173.1815, 75482.9495], var=[0.0, 4491531505.172])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-946779.4968, 497151.0531), mean=[-827447.1289, 352490.4839], var=[0.0, 387533560755.141])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3024.1203, 6208.5218), mean=[4315.2803, 5169.0673], var=[523.5276, 568562.7108])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(130171.5776, 267242.3738), mean=[173452.5213, 231125.9187], var=[0.0, 1637019018.1017])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6541.9073, 39815.8477), mean=[6763.1303, 38714.228], var=[0.0, 276788778.2209])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24706.8651, 34491.7881), mean=[28611.388, 30587.2651], var=[18983.974, 3293869.9779])</t>
+    <t>Pbox: ~ (range=[(21097.3519, 179196.9895), mean=[73196.1493, 136383.0413], var=[0.0, 1935096543.1757])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1346.4, 5980.92), mean=1810.652, var=[858866.2597, 1366654.2596])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-85348.8057, 77385.3519), mean=[-33250.0082, 34571.4037], var=[0.0, 2135441393.6242])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-32020.4422, 197028.8324), mean=[26963.8037, 143550.5822], var=[0.0, 5203406926.7049])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5613.5602, 11524.6445), mean=[8010.2917, 9595.1442], var=[1803.924, 1959101.8719])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23389.8342, 32653.1594), mean=28021.4968, var=1678454.7333)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24253.1935, 184884.1483), mean=[77266.5399, 141324.1588], var=[0.0, 1993268726.737])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-82192.9641, 83072.5107), mean=[-29179.6177, 39512.5212], var=[0.0, 2196474526.81])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-159403.1763, 234911.5731), mean=[-72262.558, 156475.8055], var=[0.0, 19008268281.8525])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5700.0762, 11702.2618), mean=[8133.746, 9743.0242], var=[1859.9565, 2019954.414])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(23750.3174, 33156.4086), mean=28453.363, var=1730589.9688)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(27125.9742, 189972.2517), mean=[80939.9618, 145759.194], var=[0.0, 2044869803.733])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-79320.1834, 88160.6142), mean=[-25506.1958, 43947.5564], var=[0.0, 2250578389.9958])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-283913.1297, 277882.4172), mean=[-176725.7278, 178037.1159], var=[0.0, 43294789090.8256])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5775.8269, 11857.7781), mean=[8241.8388, 9872.5034], var=[1909.7205, 2073999.1972])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24065.9453, 33597.038), mean=28831.4916, var=1776892.6769)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(29746.0754, 194532.0209), mean=[84261.311, 149747.057], var=[0.0, 2090586503.0179])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-76700.0822, 92720.3833), mean=[-22184.8466, 47935.4194], var=[0.0, 2298485908.6467])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-405802.982, 325413.0305), mean=[-284751.9371, 206721.2123], var=[0.0, 78671686569.1485])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5842.3877, 11994.4276), mean=[8336.818, 9986.2745], var=[1953.9895, 2122076.3176])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24343.2821, 33984.2115), mean=29163.7468, var=1818082.6076)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(32143.693, 198633.9916), mean=[87275.2609, 153346.4281], var=[0.0, 2131169542.8124])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-74302.4645, 96822.354), mean=[-19170.8967, 51534.7906], var=[0.0, 2340993567.5373])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-525295.2166, 377045.6144), mean=[-392292.4841, 241392.3805], var=[0.0, 125595423428.054])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5901.3341, 12115.4446), mean=[8420.9318, 10087.0303], var=[1993.6177, 2165113.4366])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24588.8921, 34327.0929), mean=29457.9925, var=1854954.532)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(34348.8473, 202348.5235), mean=[90026.4014, 156615.7755], var=[0.0, 2167426779.7701])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-72097.3103, 100536.8859), mean=[-16419.7562, 54804.138], var=[0.0, 2378954690.2267])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-642582.297, 432392.7302), mean=[-498045.1208, 281206.7758], var=[0.0, 184542496418.1777])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(5954.2414, 12224.0634), mean=[8496.4281, 10177.4637], var=[2029.5247, 2204109.3218])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(24809.3393, 34634.8462), mean=29722.0928, var=1888364.1412)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(36391.391, 205745.8093), mean=[92559.077, 159613.421], var=[0.0, 2200226782.3656])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-70054.7666, 103934.1718), mean=[-13887.0805, 57801.7834], var=[0.0, 2413283731.5081])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-730521.3023, 518442.6633), mean=[-574907.3292, 352371.0907], var=[0.0, 255996879715.3356])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6002.6851, 12323.5183), mean=[8565.5551, 10260.2676], var=[2062.6835, 2240120.4745])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25011.188, 34916.6352), mean=29963.9116, var=1919216.5897)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(38301.0183, 208895.8829), mean=[94917.5905, 162397.5376], var=[0.0, 2230472790.474])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-68145.1393, 107084.2454), mean=[-11528.567, 60585.9], var=[0.0, 2444929509.923])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-816550.6803, 607642.6699), mean=[-650215.0291, 426896.7028], var=[0.0, 340421891286.522])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6048.2406, 12417.0437), mean=[8630.5606, 10338.1346], var=[2094.1104, 2274250.843])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25201.0024, 35181.6238), mean=30191.3131, var=1948457.6821)</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(9340.7095, 19542.4085), mean=[10008.8093, 18591.5538], var=[0.0, 26018665.5774])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(37233.2378, 236967.8181), mean=[81857.8765, 199137.311], var=[0.0, 4934671974.0168])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-73536.4039, 131171.3217), mean=[-28652.6332, 93340.8146], var=[0.0, 5285833225.9992])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1039521.3516, 609116.9238), mean=[-912834.5399, 451877.3114], var=[0.0, 514329486012.7985])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3046.2416, 6253.9369), mean=[4346.8464, 5206.8788], var=[531.2148, 576911.1556])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(131123.7769, 269197.2399), mean=[174721.3188, 232816.5945], var=[0.0, 1661056055.2033])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(6770.8741, 50367.0474), mean=[6999.8399, 48973.4985], var=[0.0, 475156582.5534])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(24887.5947, 34744.0939), mean=[28820.6791, 30811.0096], var=[19262.7236, 3342235.2528])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(39472.9159, 250603.9721), mean=[84419.6877, 212503.1691], var=[0.0, 5726531060.6487])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-71296.7258, 144807.4758), mean=[-26097.6319, 106706.6728], var=[0.0, 6105020831.3009])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1130023.5284, 734718.9486), mean=[-996317.4735, 565196.5223], var=[0.0, 668747282621.9818])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3068.4942, 6299.6215), mean=[4378.5998, 5244.9147], var=[539.0041, 585370.5348])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(132081.6273, 271163.7075), mean=[175997.6462, 234517.304], var=[0.0, 1685412497.0827])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7007.8546, 63714.315), mean=[7244.8343, 61951.4756], var=[0.0, 803905660.265])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25069.3969, 34997.8972), mean=[29031.2122, 31036.0819], var=[19545.1773, 3391243.2068])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(41659.2206, 266981.1822), mean=[86930.0469, 228608.4519], var=[0.0, 6804768328.4189])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-69110.4211, 161184.6858), mean=[-23593.9792, 122811.9555], var=[0.0, 7217366725.0608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1218339.4005, 876698.1834), mean=[-1077756.057, 695180.4826], var=[0.0, 856900071271.3981])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3091.6658, 6347.1928), mean=[4411.6646, 5284.5214], var=[547.1754, 594244.7058])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(133079.0348, 273211.3863), mean=[177326.6833, 236288.2492], var=[0.0, 1710963217.1806])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7253.1296, 80598.6084), mean=[7498.4035, 78368.6166], var=[0.0, 1344889817.3699])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25258.7071, 35262.182), mean=[29250.4399, 31270.4493], var=[19841.4806, 3442654.1854])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(43820.6314, 286906.8573), mean=[89428.9308, 248250.9267], var=[0.0, 8295482798.9901])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-66949.0102, 181110.3609), mean=[-21102.0581, 142454.4304], var=[0.0, 8751008015.0063])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1304493.8617, 1038603.0933), mean=[-1157123.1689, 845352.8324], var=[0.0, 1087212505136.4984])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3116.544, 6398.2679), mean=[4447.1647, 5327.0453], var=[556.0169, 603846.8161])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(134149.9058, 275409.8855), mean=[178753.6099, 238189.6324], var=[0.0, 1738609837.2501])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7506.9891, 101957.2396), mean=[7760.8476, 99136.3], var=[0.0, 2230212457.6172])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25461.9609, 35545.9326), mean=[29485.8147, 31522.0788], var=[20162.0894, 3498282.3552])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(45985.474, 311384.5965), mean=[91956.1506, 272424.5465], var=[0.0, 10388258297.2815])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-64784.1677, 205588.1001), mean=[-18582.2407, 166628.0501], var=[0.0, 10898121578.5945])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1388483.4804, 1224985.7424), mean=[-1234389.6123, 1020221.5323], var=[0.0, 1371354398168.89])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(3143.9167, 6454.4639), mean=[4486.2242, 5373.8328], var=[565.8268, 614500.5893])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(135328.1465, 277828.8147), mean=[180323.6056, 240281.6556], var=[0.0, 1769284429.5457])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(7769.7337, 128975.9082), mean=[8032.4772, 125407.4195], var=[0.0, 3672734180.9888])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(25685.5937, 35858.133), mean=[29744.789, 31798.9377], var=[20517.8127, 3560003.1523])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(48181.9282, 341666.2308), mean=[94551.3639, 302371.5046], var=[0.0, 13369264236.2351])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-62587.7135, 235869.7345), mean=[-15995.0373, 196575.0083], var=[0.0, 13947507082.7608])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1470276.6449, 1441650.0259), mean=[-1309503.6473, 1225574.001], var=[0.0, 1725603800954.725])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(43331.9245, 88267.17), mean=[48498.9779, 82260.7886], var=[0.0, 332539077.6251])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1865198.6148, 3799411.2939), mean=[2023794.8787, 3587679.4549], var=[0.0, 682884974103.477])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(92619.2682, 597564.2408), mean=[92882.0118, 593995.7522], var=[0.0, 63742356337.183])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1957817.883, 4396975.5348), mean=[2116414.1469, 4185243.6957], var=[0.0, 1162968831878.7195])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39216.046, 47982.9113], var=[0.0, 25389914.6349])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(356778.0337, 498076.6391), mean=[384736.6139, 470118.0589], var=[0.0, 2394953380.967])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[120908.1109, 206796.7733], var=[0.0, 2268844996.5876])</t>
+    <t>Pbox: ~ (range=[(43981.4798, 218457.293), mean=[101020.2775, 171614.759], var=[0.0, 2384180838.6091])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-62464.6778, 116645.6555), mean=[-5425.88, 69803.1214], var=[0.0, 2606272465.0683])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-896899.5969, 706404.0866), mean=[-720166.5571, 511159.259], var=[0.0, 439998510726.5515])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6092.4832, 12507.8738), mean=[8693.6927, 10413.7576], var=[2124.8591, 2307644.6224])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25385.3466, 35438.9758), mean=30412.1612, var=1977067.7038)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(45713.7606, 221322.4475), mean=[103162.68, 174145.6215], var=[0.0, 2412907766.4413])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-60732.397, 119510.81), mean=[-3283.4775, 72333.984], var=[0.0, 2636277600.5044])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-975516.2326, 808030.6578), mean=[-788718.3596, 598458.0407], var=[0.0, 553656129501.819])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6136.9884, 12599.243), mean=[8757.1996, 10489.8293], var=[2156.0164, 2341482.1392])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25570.7848, 35697.8551), mean=30634.32, var=2006057.8961)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(47401.3319, 224149.6158), mean=[105262.8636, 176636.4726], var=[0.0, 2441976607.1928])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-59044.8257, 122337.9782), mean=[-1183.294, 74824.8351], var=[0.0, 2666631954.1048])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1052445.2971, 912484.3973), mean=[-855878.3444, 688724.5749], var=[0.0, 681642984468.1449])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6183.3315, 12694.3855), mean=[8823.3291, 10569.0427], var=[2188.7015, 2376978.8231])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25763.8813, 35967.4257), mean=30865.6535, var=2036469.5751)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(49073.3279, 227008.2718), mean=[107364.6057, 179144.8933], var=[0.0, 2472429035.3578])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-57372.8297, 125196.6342), mean=[918.4481, 77333.2557], var=[0.0, 2698422467.6286])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-0.0, -0.0), mean=0.0, var=0.0)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1127702.3655, 1019796.7927), mean=[-921646.6201, 781987.0682], var=[0.0, 824297650375.5919])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6233.088, 12796.5357), mean=[8894.3294, 10654.0906], var=[2224.0676, 2415387.2645])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(25971.2002, 36256.8512), mean=31114.0257, var=2069375.8937)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(50758.7602, 229967.7668), mean=[109511.4758, 181728.3128], var=[0.0, 2505333721.8568])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-55687.3974, 128156.1292), mean=[3065.3182, 79916.6753], var=[0.0, 2732763528.7057])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1201274.0016, 1130068.6832), mean=[-986018.1287, 878316.6799], var=[0.0, 982065043949.9528])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(6287.8333, 12908.9279), mean=[8972.4484, 10747.6656], var=[2263.3072, 2458002.3573])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(26199.3056, 36575.2957), mean=31387.3006, var=2105886.2484)</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(52486.5235, 233097.3352), mean=[111747.0263, 184444.0537], var=[0.0, 2541786133.1331])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-53959.634, 131285.6977), mean=[5300.8687, 82632.4161], var=[0.0, 2770795730.3203])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1273117.8744, 1243470.1421), mean=[-1048912.3449, 977878.1984], var=[0.0, 1155411680537.9365])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(86663.8489, 176534.3399), mean=[96997.9558, 164521.5772], var=[0.0, 1330156310.5005])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1971602.5627, 4016156.2335), mean=[2191202.3352, 3759567.532], var=[0.0, 709218067605.1162])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(36392.9374, 50806.02), mean=[39809.1515, 47389.8059], var=[0.0, 20027028.1448])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(366893.3609, 512198.0471), mean=[401271.2841, 477820.1238], var=[0.0, 2038408398.9179])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(105211.4266, 222493.4577), mean=[125570.8946, 202133.9896], var=[0.0, 1881201697.7549])</t>
   </si>
   <si>
     <t>Pbox: ~ (range=[(192819.9697, 318318.4753), mean=[193959.3276, 317179.1174], var=[0.0, 3937468732.9548])</t>
@@ -746,28 +656,28 @@
     <t>Pbox: ~ (range=[(880.701, 5533.461), mean=[918.9994, 5411.0893], var=[0.0, 5299876.4186])</t>
   </si>
   <si>
-    <t>Pbox: ~ (range=[(1116752.0954, 1519897.0803), mean=[1151259.3725, 1485389.8032], var=[0.0, 30935226018.8702])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(437920.8028, 3280223.4393), mean=[598693.8004, 3064147.4144], var=[0.0, 1635440732445.2336])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(19578.6, 89202.6342), mean=[19869.9038, 77259.0472], var=[0.0, 1033926341.0606])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(1543097.7812, 1612721.8154), mean=[1543389.085, 1600778.2284], var=[0.0, 1033926341.0606])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1174801.0126, 1737125.6582), mean=[-1014028.015, 1521049.6333], var=[0.0, 1725603800954.7244])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-1583931.8349, 1327994.8359), mean=[-1423158.8373, 1111918.811], var=[0.0, 1725603800954.7246])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-749.4539, 628.3546), mean=[-673.3824, 526.116], var=[0.0, 386329.5374])</t>
-  </si>
-  <si>
-    <t>Pbox: ~ (range=[(-11807347.1281, 8237137.5485), mean=[-11414984.8943, 7660134.2634], var=[0.0, 95585507790779.98])</t>
+    <t>Pbox: ~ (range=[(1025639.7858, 1432790.8515), mean=[1070518.1339, 1387912.5034], var=[0.0, 28629476026.041])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(538811.7112, 2990516.4477), mean=[763017.2407, 2724924.504], var=[0.0, 1086832425331.2372])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(19578.6, 84461.88), mean=[19850.6764, 73331.6772], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(1491953.1245, 1556836.4045), mean=[1492225.2009, 1545706.2017], var=[0.0, 897900952.0362])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1018024.6933, 1498563.3232), mean=[-793819.1638, 1232971.3795], var=[0.0, 1155411680537.9365])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-1468484.8744, 1048103.1421), mean=[-1244279.3449, 782511.1984], var=[0.0, 1155411680537.9365])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-817.4917, 583.4692), mean=[-692.6786, 435.6166], var=[0.0, 358067.1732])</t>
+  </si>
+  <si>
+    <t>Pbox: ~ (range=[(-9855730.4607, 9124643.5412), mean=[-9210210.5234, 8183797.0039], var=[0.0, 81359979518762.36])</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>61946.83207631908</v>
+        <v>66590.19849158289</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1413,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="D6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="E6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="F6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="G6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="H6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="I6">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1458,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>261303.56549061</v>
+        <v>382277.4384029294</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1469,52 +1379,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9602.7255</v>
+        <v>8942.119375</v>
       </c>
       <c r="D7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="E7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="F7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="G7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="H7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="I7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="J7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="K7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="L7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="M7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="N7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="O7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="P7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="Q7">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="R7">
-        <v>556958.079</v>
+        <v>518642.9237499999</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1575,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>211344.81</v>
+        <v>179633</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1756,49 +1666,49 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
         <v>149</v>
       </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="N2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>201</v>
+      </c>
+      <c r="R2" t="s">
         <v>206</v>
-      </c>
-      <c r="O2" t="s">
-        <v>213</v>
-      </c>
-      <c r="P2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1809,52 +1719,52 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>234</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1977,52 +1887,52 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" t="s">
         <v>207</v>
-      </c>
-      <c r="O6" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>228</v>
-      </c>
-      <c r="R6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2089,52 +1999,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4800</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" t="s">
-        <v>201</v>
-      </c>
-      <c r="N8" t="s">
-        <v>208</v>
-      </c>
-      <c r="O8" t="s">
-        <v>215</v>
-      </c>
-      <c r="P8" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>229</v>
-      </c>
-      <c r="R8" t="s">
-        <v>236</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2358,7 +2268,7 @@
         <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2372,49 +2282,49 @@
         <v>19758.48</v>
       </c>
       <c r="D13">
-        <v>39516.96</v>
+        <v>29637.72</v>
       </c>
       <c r="E13">
-        <v>37541.112</v>
+        <v>28155.834</v>
       </c>
       <c r="F13">
-        <v>35664.0564</v>
+        <v>26748.0423</v>
       </c>
       <c r="G13">
-        <v>33880.85358</v>
+        <v>25410.640185</v>
       </c>
       <c r="H13">
-        <v>32186.81090099999</v>
+        <v>24140.10817575</v>
       </c>
       <c r="I13">
-        <v>30577.47035594999</v>
+        <v>22933.1027669625</v>
       </c>
       <c r="J13">
-        <v>29048.59683815249</v>
+        <v>21786.44762861437</v>
       </c>
       <c r="K13">
-        <v>27596.16699624487</v>
+        <v>20697.12524718366</v>
       </c>
       <c r="L13">
-        <v>26216.35864643263</v>
+        <v>19662.26898482447</v>
       </c>
       <c r="M13">
-        <v>24905.54071411099</v>
+        <v>18679.15553558325</v>
       </c>
       <c r="N13">
-        <v>23660.26367840544</v>
+        <v>17745.19775880408</v>
       </c>
       <c r="O13">
-        <v>22477.25049448517</v>
+        <v>16857.93787086388</v>
       </c>
       <c r="P13">
-        <v>21353.38796976091</v>
+        <v>16015.04097732068</v>
       </c>
       <c r="Q13">
-        <v>20285.71857127286</v>
+        <v>15214.28892845465</v>
       </c>
       <c r="R13">
-        <v>424669.0271458154</v>
+        <v>323441.3903593615</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2425,52 +2335,52 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R14" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2481,52 +2391,52 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
         <v>145</v>
       </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" t="s">
         <v>202</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
         <v>209</v>
-      </c>
-      <c r="O15" t="s">
-        <v>216</v>
-      </c>
-      <c r="P15" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>230</v>
-      </c>
-      <c r="R15" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2537,52 +2447,52 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="R16" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2593,52 +2503,52 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="R17" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2649,52 +2559,52 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R18" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2750,7 +2660,7 @@
         <v>84</v>
       </c>
       <c r="R19" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2761,52 +2671,52 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
         <v>146</v>
       </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s">
+        <v>182</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>192</v>
+      </c>
+      <c r="P20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" t="s">
         <v>203</v>
       </c>
-      <c r="N20" t="s">
-        <v>210</v>
-      </c>
-      <c r="O20" t="s">
-        <v>217</v>
-      </c>
-      <c r="P20" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>231</v>
-      </c>
       <c r="R20" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2932,49 +2842,49 @@
         <v>729</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R23" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3041,52 +2951,52 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>23216.83207631908</v>
+        <v>27860.19849158289</v>
       </c>
       <c r="D25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="E25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="F25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="G25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="H25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="I25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="J25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="K25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="L25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="M25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="N25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="O25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="P25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="Q25">
-        <v>35579.09636504133</v>
+        <v>31594.2375721567</v>
       </c>
       <c r="R25">
-        <v>521324.1811868977</v>
+        <v>470179.5245017768</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3097,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>61946.83207631908</v>
+        <v>66590.19849158289</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -3142,7 +3052,7 @@
         <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3153,52 +3063,52 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
         <v>147</v>
       </c>
-      <c r="F27" t="s">
-        <v>154</v>
-      </c>
       <c r="G27" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M27" t="s">
+        <v>183</v>
+      </c>
+      <c r="N27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O27" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q27" t="s">
         <v>204</v>
       </c>
-      <c r="N27" t="s">
-        <v>211</v>
-      </c>
-      <c r="O27" t="s">
-        <v>218</v>
-      </c>
-      <c r="P27" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>232</v>
-      </c>
       <c r="R27" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3209,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="D28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="E28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="F28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="G28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="H28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="I28">
-        <v>18664.54039218643</v>
+        <v>27305.53131449496</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3254,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>130651.782745305</v>
+        <v>191138.7192014647</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3262,55 +3172,55 @@
         <v>115</v>
       </c>
       <c r="B29">
-        <v>108000</v>
+        <v>158000</v>
       </c>
       <c r="C29">
-        <v>94735.46000000001</v>
+        <v>138594.47</v>
       </c>
       <c r="D29">
-        <v>80807.69</v>
+        <v>118218.66</v>
       </c>
       <c r="E29">
-        <v>66183.53</v>
+        <v>96824.06</v>
       </c>
       <c r="F29">
-        <v>50828.17</v>
+        <v>74359.73</v>
       </c>
       <c r="G29">
-        <v>34705.04</v>
+        <v>50772.19</v>
       </c>
       <c r="H29">
-        <v>17775.75</v>
+        <v>26005.27</v>
       </c>
       <c r="I29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>453035.64</v>
+        <v>662774.3800000001</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3321,49 +3231,49 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O30" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="Q30" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="R30" t="s">
         <v>10</v>
@@ -3377,52 +3287,52 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9602.7255</v>
+        <v>8942.119375</v>
       </c>
       <c r="D31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="E31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="F31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="G31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="H31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="I31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="J31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="K31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="L31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="M31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="N31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="O31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="P31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="Q31">
-        <v>19205.451</v>
+        <v>17884.23875</v>
       </c>
       <c r="R31">
-        <v>278479.0395</v>
+        <v>259321.4618749999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3478,7 +3388,7 @@
         <v>85</v>
       </c>
       <c r="R32" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3534,7 +3444,7 @@
         <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3542,55 +3452,55 @@
         <v>118</v>
       </c>
       <c r="B34">
-        <v>85446.18999999999</v>
+        <v>168796</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
         <v>148</v>
       </c>
-      <c r="F34" t="s">
-        <v>155</v>
-      </c>
       <c r="G34" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+      <c r="O34" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q34" t="s">
         <v>205</v>
       </c>
-      <c r="N34" t="s">
-        <v>212</v>
-      </c>
-      <c r="O34" t="s">
-        <v>219</v>
-      </c>
-      <c r="P34" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>233</v>
-      </c>
       <c r="R34" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
